--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Benson.Spring.011420.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Benson.Spring.011420.xlsx_with_dialog_acts.xlsx
@@ -661,12 +661,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1575,12 +1575,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1879,12 +1879,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1993,12 +1993,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2343,12 +2343,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2381,12 +2381,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2533,12 +2533,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3565,12 +3565,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3679,12 +3679,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3983,12 +3983,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4519,12 +4519,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4789,12 +4789,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6625,12 +6625,12 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7473,12 +7473,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8005,12 +8005,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8993,12 +8993,12 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10897,12 +10897,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10939,12 +10939,12 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10977,12 +10977,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11053,12 +11053,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11243,12 +11243,12 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11471,12 +11471,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11699,12 +11699,12 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12117,12 +12117,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12459,12 +12459,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12497,12 +12497,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12687,12 +12687,12 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12843,12 +12843,12 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14063,12 +14063,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14257,12 +14257,12 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14447,12 +14447,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15405,12 +15405,12 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16013,12 +16013,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
